--- a/biology/Médecine/Répertoire_partagé_des_professionnels_de_santé/Répertoire_partagé_des_professionnels_de_santé.xlsx
+++ b/biology/Médecine/Répertoire_partagé_des_professionnels_de_santé/Répertoire_partagé_des_professionnels_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9pertoire_partag%C3%A9_des_professionnels_de_sant%C3%A9</t>
+          <t>Répertoire_partagé_des_professionnels_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Répertoire partagé des professionnels de santé, Répertoire partagé des professionnels intervenant dans le système de santé ou RPPS, est un fichier référençant certaines catégories de professionnels de la santé en France, chacun d'entre eux se voyant attribuer un numéro à 11 chiffres qui l'identifie. Il est élaboré par l'État en collaboration avec l'Assurance maladie et différents organismes professionnels tels que le Conseil national de l'Ordre des médecins.
-Les professions de santé enregistrées dans le RPPS[1] :
+Les professions de santé enregistrées dans le RPPS :
 médecins ;
 chirurgiens-dentistes ;
 sages-femmes ;
